--- a/biology/Botanique/Tarenna/Tarenna.xlsx
+++ b/biology/Botanique/Tarenna/Tarenna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tarenna est un genre de plantes appartenant à la famille des Rubiaceae.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,14 +552,16 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017) :
 Tarenna dallachiana (F. Muell. ex Benth.) S. Moore
 Tarenna grevei (Drake) Homolle
 Tarenna monticola S.T. Reynolds &amp; P.I. Forst.
 Tarenna sambucina (G. Forst.) Durand
-Selon Catalogue of Life                                   (24 juillet 2017)[3] :
+Selon Catalogue of Life                                   (24 juillet 2017) :
 Tarenna acuminata Merr.
 Tarenna acutisepala F.C.How ex W.C.Chen
 Tarenna adangensis (Ridl.) Ridl.
@@ -737,14 +753,14 @@
 Tarenna wrayi (King) Ridl.
 Tarenna yappii (King) Ridl.
 Tarenna yunnanensis F.C.How ex W.C.Chen
-Selon GRIN            (24 juillet 2017)[4] :
+Selon GRIN            (24 juillet 2017) :
 Tarenna asiatica (L.) Kuntze
 Tarenna borbonica (Hend. &amp; A. A. Hend.) Verdc.
 Tarenna hutchinsonii Bremek.
 Tarenna sambucina (G. Forst.) K. Schum. &amp; Lauterb.
-Selon ITIS      (24 juillet 2017)[5] :
+Selon ITIS      (24 juillet 2017) :
 Tarenna sambucina (G. Forst.) T. Durand ex Drake
-Selon NCBI  (24 juillet 2017)[6] :
+Selon NCBI  (24 juillet 2017) :
 Tarenna alleizettei
 Tarenna alpestris
 Tarenna asiatica
@@ -786,7 +802,7 @@
 Tarenna thouarsiana
 Tarenna uniflora
 Tarenna vignei
-Selon The Plant List            (24 juillet 2017)[7] :
+Selon The Plant List            (24 juillet 2017) :
 Tarenna acuminata Merr.
 Tarenna acutisepala F.C.How ex W.C.Chen
 Tarenna adangensis (Ridl.) Ridl.
@@ -979,7 +995,7 @@
 Tarenna wrayi (King) Ridl.
 Tarenna yappii (King) Ridl.
 Tarenna yunnanensis F.C.How ex W.C.Chen
-Selon Tropicos                                           (24 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Tarenna acuminata Merr.
 Tarenna acutisepala F.C. How ex W.C. Chen
 Tarenna adamii Schnell
